--- a/data/Clinical manifestation disease related.xlsx
+++ b/data/Clinical manifestation disease related.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChanRe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Internal project\Projects\autoabdb\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4ADD3-C917-42AF-8662-B75392A4FD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D000566C-349C-4DF3-8921-F4595CB832CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7D3C3F3-3ECF-44D9-B387-EFAF535DA438}"/>
   </bookViews>
@@ -8526,8 +8526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C980B48-2B06-48A1-8E6C-A4FA77030020}">
   <dimension ref="A1:I3484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1207" workbookViewId="0">
-      <selection activeCell="C1234" sqref="C1234"/>
+    <sheetView tabSelected="1" topLeftCell="A2474" workbookViewId="0">
+      <selection activeCell="A3484" sqref="A3484:XFD3484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
